--- a/GameClient/QZ/Assets/__Arts/策划配置工具/dungeon.xlsx
+++ b/GameClient/QZ/Assets/__Arts/策划配置工具/dungeon.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="L4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="M4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>表不能合并</t>
   </si>
@@ -133,6 +133,9 @@
     <t>sceneName</t>
   </si>
   <si>
+    <t>mapConfig</t>
+  </si>
+  <si>
     <t>backMusic</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
     <t>starConditions</t>
   </si>
   <si>
-    <t>mapConfig</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>地图文件（资源信息）</t>
+  </si>
+  <si>
+    <t>地图XML配置信息</t>
   </si>
   <si>
     <t>背景音乐</t>
@@ -229,9 +232,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -377,6 +380,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -386,13 +396,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +410,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,12 +434,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -455,6 +476,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,127 +494,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1232,14 +1235,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1248,18 +1251,18 @@
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="63.75" customWidth="1"/>
-    <col min="12" max="12" width="65.125" customWidth="1"/>
-    <col min="13" max="13" width="21.25" customWidth="1"/>
+    <col min="5" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
+    <col min="8" max="8" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="63.75" customWidth="1"/>
+    <col min="13" max="13" width="65.125" customWidth="1"/>
+    <col min="14" max="14" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1275,8 +1278,9 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1311,11 +1315,14 @@
       <c r="L2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1353,8 +1360,11 @@
       <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:13">
+    <row r="4" ht="17" customHeight="1" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1385,213 +1395,231 @@
       <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="6">
         <v>10000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="6">
         <v>1001</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6">
         <v>300</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
       </c>
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>30</v>
+      <c r="K5" s="6">
+        <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="6">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="6">
         <v>10001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="6">
         <v>1001</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6">
         <v>300</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>32</v>
+      <c r="K6" s="6">
+        <v>0</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="6">
         <v>10001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="6">
         <v>10002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="6">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6">
+        <v>10002</v>
+      </c>
+      <c r="G7" s="6">
         <v>1001</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6">
         <v>300</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
       </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>10002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="6">
         <v>10003</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6">
+        <v>10003</v>
+      </c>
+      <c r="G8" s="6">
         <v>1001</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6">
         <v>300</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
       </c>
       <c r="J8" s="6">
         <v>0</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>35</v>
+      <c r="K8" s="6">
+        <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="6">
+        <v>36</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="6">
         <v>10003</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="2"/>
       <c r="B9" s="6">
         <v>10004</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6">
         <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6">
+        <v>10004</v>
+      </c>
+      <c r="G9" s="6">
         <v>1001</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6">
         <v>300</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>36</v>
+      <c r="K9" s="6">
+        <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="6">
+        <v>37</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="6">
         <v>10004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M9">
+  <autoFilter ref="A1:N9">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="$A1:$XFD1048576">

--- a/GameClient/QZ/Assets/__Arts/策划配置工具/dungeon.xlsx
+++ b/GameClient/QZ/Assets/__Arts/策划配置工具/dungeon.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>表不能合并</t>
   </si>
@@ -166,7 +166,7 @@
     <t>场景名</t>
   </si>
   <si>
-    <t>是否普通地图(修改为地图类型，1：主城，2新手村，3：常规地图，4：副本地图，5：原地副本，6：任务副本，7：游历副本，8：美人副本，9：府邸，10：府邸战斗玩家场景，11；府邸战斗npc场景，12：府邸讨教,13；擂台,14:侠客之路，15:一站到底,16：江湖论剑准备区，51:切磋 80：组队副本GVE 81:江湖论剑战斗区 82:1v1天梯注：51之前均为pve类型）</t>
+    <t>地图类型  1:主城 2:1V1，3:多人乱斗</t>
   </si>
   <si>
     <t>地图文件（资源信息）</t>
@@ -190,40 +190,25 @@
     <t>通关奖励</t>
   </si>
   <si>
-    <t>通关条件</t>
-  </si>
-  <si>
-    <t>星级条件</t>
+    <t>通关条件（类型，类型参数，是否显示，显示文本）</t>
+  </si>
+  <si>
+    <t>星级条件（类型，类型参数，是否显示，显示文本）</t>
   </si>
   <si>
     <t>地图怪物信息配置文件</t>
   </si>
   <si>
-    <t>刘家集</t>
-  </si>
-  <si>
-    <t>LJJ</t>
-  </si>
-  <si>
-    <t>3,100,1,100秒内通关;</t>
+    <t>1V1对打</t>
+  </si>
+  <si>
+    <t>battleScene</t>
+  </si>
+  <si>
+    <t>8,10,1,击杀对手10次;</t>
   </si>
   <si>
     <t>1,100,1,100秒内通关;1,100,1,100秒内通关;</t>
-  </si>
-  <si>
-    <t>3,,0,杀死所有野猴;</t>
-  </si>
-  <si>
-    <t>3,,0,杀死山贼头领;3,,0,杀死山贼头领;</t>
-  </si>
-  <si>
-    <t>3,,0,杀死所有士兵;</t>
-  </si>
-  <si>
-    <t>3,,0,杀死所有地痞;</t>
-  </si>
-  <si>
-    <t>3,,0,杀死铁面侠;</t>
   </si>
 </sst>
 </file>
@@ -231,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -264,11 +249,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,15 +342,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,105 +358,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,6 +395,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,175 +563,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,45 +586,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,26 +600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,8 +622,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +706,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1235,17 +1220,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:F9"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
@@ -1450,176 +1435,8 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10001</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1001</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6">
-        <v>300</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="6">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6">
-        <v>10002</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="6">
-        <v>5</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10002</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1001</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6">
-        <v>300</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="6">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6">
-        <v>10003</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10003</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1001</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6">
-        <v>300</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="6">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6">
-        <v>10004</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10004</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1001</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="6">
-        <v>300</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="6">
-        <v>10004</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N9">
+  <autoFilter ref="A1:N5">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="$A1:$XFD1048576">

--- a/GameClient/QZ/Assets/__Arts/策划配置工具/dungeon.xlsx
+++ b/GameClient/QZ/Assets/__Arts/策划配置工具/dungeon.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="14400" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,7 +22,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0">
+    <comment ref="N4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="O4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="P4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>表不能合并</t>
   </si>
@@ -142,6 +142,15 @@
     <t>icon</t>
   </si>
   <si>
+    <t>buffDropTime</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
     <t>timeLimit</t>
   </si>
   <si>
@@ -179,6 +188,15 @@
   </si>
   <si>
     <t>图标</t>
+  </si>
+  <si>
+    <t>buff掉落刷新时间（秒）</t>
+  </si>
+  <si>
+    <t>地图宽</t>
+  </si>
+  <si>
+    <t>地图高</t>
   </si>
   <si>
     <t>副本时长限制(秒)</t>
@@ -216,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -242,6 +260,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -250,19 +299,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -270,25 +327,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,16 +367,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,70 +381,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,37 +413,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,139 +533,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +604,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -600,6 +633,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,22 +671,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,31 +680,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,6 +695,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,14 +1238,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1238,16 +1256,16 @@
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="10.375" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="63.75" customWidth="1"/>
-    <col min="13" max="13" width="65.125" customWidth="1"/>
-    <col min="14" max="14" width="21.25" customWidth="1"/>
+    <col min="8" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="63.75" customWidth="1"/>
+    <col min="16" max="16" width="65.125" customWidth="1"/>
+    <col min="17" max="17" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,8 +1282,11 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -1303,11 +1324,20 @@
       <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1346,66 +1376,84 @@
         <v>14</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:14">
+    <row r="4" ht="17" customHeight="1" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="6">
         <v>10000</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6">
         <v>10000</v>
@@ -1417,26 +1465,35 @@
         <v>9</v>
       </c>
       <c r="I5" s="6">
+        <v>15</v>
+      </c>
+      <c r="J5" s="6">
+        <v>50</v>
+      </c>
+      <c r="K5" s="6">
+        <v>50</v>
+      </c>
+      <c r="L5" s="6">
         <v>300</v>
       </c>
-      <c r="J5" s="6">
+      <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="6">
         <v>10001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N5">
+  <autoFilter ref="A1:Q5">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="$A1:$XFD1048576">
